--- a/Base/Base Seguimiento Observ Auditoría al_30042021.xlsx
+++ b/Base/Base Seguimiento Observ Auditoría al_30042021.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="118">
   <si>
     <t xml:space="preserve">Auditoría/Proceso</t>
   </si>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">Rodolfo Moya</t>
   </si>
   <si>
+    <t xml:space="preserve">jmsiro@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pendiente</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">Se regularizará</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmsiro@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Atrasado</t>
@@ -617,8 +617,8 @@
   </sheetPr>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -695,29 +695,28 @@
       <c r="H2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="12" t="str">
-        <f aca="false">LEFT(G2,FIND(" ",G2)-1)&amp;"."&amp;RIGHT(G2,LEN(G2)-FIND(" ",G2))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Rodolfo.Moya_yyy1234@Hotmail.com</v>
+      <c r="I2" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="14" t="n">
         <v>44227</v>
@@ -728,12 +727,11 @@
       <c r="H3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="12" t="str">
-        <f aca="false">LEFT(G3,FIND(" ",G3)-1)&amp;"."&amp;RIGHT(G3,LEN(G3)-FIND(" ",G3))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Rodolfo.Moya_yyy1234@Hotmail.com</v>
+      <c r="I3" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,16 +739,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="14" t="n">
         <v>44316</v>
@@ -762,13 +760,13 @@
         <v>10</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
@@ -782,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="14" t="n">
         <v>44227</v>
@@ -793,15 +791,14 @@
       <c r="H5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="12" t="str">
-        <f aca="false">LEFT(G5,FIND(" ",G5)-1)&amp;"."&amp;RIGHT(G5,LEN(G5)-FIND(" ",G5))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Rodolfo.Moya_yyy1234@Hotmail.com</v>
+      <c r="I5" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -815,7 +812,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="14" t="n">
         <v>44561</v>
@@ -826,12 +823,11 @@
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="12" t="str">
-        <f aca="false">LEFT(G6,FIND(" ",G6)-1)&amp;"."&amp;RIGHT(G6,LEN(G6)-FIND(" ",G6))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Rodolfo.Moya_yyy1234@Hotmail.com</v>
+      <c r="I6" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="14" t="n">
         <v>44227</v>
@@ -859,15 +855,14 @@
       <c r="H7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="12" t="str">
-        <f aca="false">LEFT(G7,FIND(" ",G7)-1)&amp;"."&amp;RIGHT(G7,LEN(G7)-FIND(" ",G7))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Rodolfo.Moya_yyy1234@Hotmail.com</v>
+      <c r="I7" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -881,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="14" t="n">
         <v>44316</v>
@@ -892,15 +887,14 @@
       <c r="H8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="12" t="str">
-        <f aca="false">LEFT(G8,FIND(" ",G8)-1)&amp;"."&amp;RIGHT(G8,LEN(G8)-FIND(" ",G8))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Rodolfo.Moya_yyy1234@Hotmail.com</v>
+      <c r="I8" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -925,15 +919,14 @@
       <c r="H9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="12" t="str">
-        <f aca="false">LEFT(G9,FIND(" ",G9)-1)&amp;"."&amp;RIGHT(G9,LEN(G9)-FIND(" ",G9))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Rodolfo.Moya_yyy1234@Hotmail.com</v>
+      <c r="I9" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
         <v>33</v>
       </c>
@@ -944,7 +937,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>35</v>
@@ -958,15 +951,14 @@
       <c r="H10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="12" t="str">
-        <f aca="false">LEFT(G10,FIND(" ",G10)-1)&amp;"."&amp;RIGHT(G10,LEN(G10)-FIND(" ",G10))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Francisco.Aguilera_yyy1234@Hotmail.com</v>
+      <c r="I10" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
         <v>33</v>
       </c>
@@ -991,15 +983,14 @@
       <c r="H11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="12" t="str">
-        <f aca="false">LEFT(G11,FIND(" ",G11)-1)&amp;"."&amp;RIGHT(G11,LEN(G11)-FIND(" ",G11))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Francisco.Aguilera_yyy1234@Hotmail.com</v>
+      <c r="I11" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
         <v>33</v>
       </c>
@@ -1024,15 +1015,14 @@
       <c r="H12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="12" t="str">
-        <f aca="false">LEFT(G12,FIND(" ",G12)-1)&amp;"."&amp;RIGHT(G12,LEN(G12)-FIND(" ",G12))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Francisco.Aguilera_yyy1234@Hotmail.com</v>
+      <c r="I12" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
         <v>33</v>
       </c>
@@ -1057,15 +1047,14 @@
       <c r="H13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="12" t="str">
-        <f aca="false">LEFT(G13,FIND(" ",G13)-1)&amp;"."&amp;RIGHT(G13,LEN(G13)-FIND(" ",G13))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Francisco.Aguilera_yyy1234@Hotmail.com</v>
+      <c r="I13" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
         <v>33</v>
       </c>
@@ -1090,15 +1079,14 @@
       <c r="H14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="12" t="str">
-        <f aca="false">LEFT(G14,FIND(" ",G14)-1)&amp;"."&amp;RIGHT(G14,LEN(G14)-FIND(" ",G14))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Francisco.Aguilera_yyy1234@Hotmail.com</v>
+      <c r="I14" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
         <v>33</v>
       </c>
@@ -1109,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>44</v>
@@ -1123,15 +1111,14 @@
       <c r="H15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="12" t="str">
-        <f aca="false">LEFT(G15,FIND(" ",G15)-1)&amp;"."&amp;RIGHT(G15,LEN(G15)-FIND(" ",G15))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Francisco.Aguilera_yyy1234@Hotmail.com</v>
+      <c r="I15" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
         <v>33</v>
       </c>
@@ -1156,15 +1143,14 @@
       <c r="H16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="12" t="str">
-        <f aca="false">LEFT(G16,FIND(" ",G16)-1)&amp;"."&amp;RIGHT(G16,LEN(G16)-FIND(" ",G16))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Francisco.Aguilera_yyy1234@Hotmail.com</v>
+      <c r="I16" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
         <v>33</v>
       </c>
@@ -1175,7 +1161,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>44</v>
@@ -1189,15 +1175,14 @@
       <c r="H17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="12" t="str">
-        <f aca="false">LEFT(G17,FIND(" ",G17)-1)&amp;"."&amp;RIGHT(G17,LEN(G17)-FIND(" ",G17))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Francisco.Aguilera_yyy1234@Hotmail.com</v>
+      <c r="I17" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
         <v>33</v>
       </c>
@@ -1222,15 +1207,14 @@
       <c r="H18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="12" t="str">
-        <f aca="false">LEFT(G18,FIND(" ",G18)-1)&amp;"."&amp;RIGHT(G18,LEN(G18)-FIND(" ",G18))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Francisco.Aguilera_yyy1234@Hotmail.com</v>
+      <c r="I18" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
         <v>33</v>
       </c>
@@ -1255,15 +1239,14 @@
       <c r="H19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="12" t="str">
-        <f aca="false">LEFT(G19,FIND(" ",G19)-1)&amp;"."&amp;RIGHT(G19,LEN(G19)-FIND(" ",G19))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Francisco.Aguilera_yyy1234@Hotmail.com</v>
+      <c r="I19" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
@@ -1288,15 +1271,14 @@
       <c r="H20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="12" t="str">
-        <f aca="false">LEFT(G20,FIND(" ",G20)-1)&amp;"."&amp;RIGHT(G20,LEN(G20)-FIND(" ",G20))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Katherine.Vega_yyy1234@Hotmail.com</v>
+      <c r="I20" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
@@ -1307,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>58</v>
@@ -1321,15 +1303,14 @@
       <c r="H21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="12" t="str">
-        <f aca="false">LEFT(G21,FIND(" ",G21)-1)&amp;"."&amp;RIGHT(G21,LEN(G21)-FIND(" ",G21))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Katherine.Vega_yyy1234@Hotmail.com</v>
+      <c r="I21" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
         <v>53</v>
       </c>
@@ -1354,15 +1335,14 @@
       <c r="H22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="12" t="str">
-        <f aca="false">LEFT(G22,FIND(" ",G22)-1)&amp;"."&amp;RIGHT(G22,LEN(G22)-FIND(" ",G22))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Katherine.Vega_yyy1234@Hotmail.com</v>
+      <c r="I22" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
         <v>53</v>
       </c>
@@ -1387,15 +1367,14 @@
       <c r="H23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="12" t="str">
-        <f aca="false">LEFT(G23,FIND(" ",G23)-1)&amp;"."&amp;RIGHT(G23,LEN(G23)-FIND(" ",G23))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Katherine.Vega_yyy1234@Hotmail.com</v>
+      <c r="I23" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="58.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
@@ -1420,15 +1399,14 @@
       <c r="H24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="12" t="str">
-        <f aca="false">LEFT(G24,FIND(" ",G24)-1)&amp;"."&amp;RIGHT(G24,LEN(G24)-FIND(" ",G24))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Katherine.Vega_yyy1234@Hotmail.com</v>
+      <c r="I24" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>53</v>
       </c>
@@ -1439,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>68</v>
@@ -1453,15 +1431,14 @@
       <c r="H25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="12" t="str">
-        <f aca="false">LEFT(G25,FIND(" ",G25)-1)&amp;"."&amp;RIGHT(G25,LEN(G25)-FIND(" ",G25))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Katherine.Vega_yyy1234@Hotmail.com</v>
+      <c r="I25" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
         <v>69</v>
       </c>
@@ -1486,15 +1463,14 @@
       <c r="H26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="12" t="str">
-        <f aca="false">LEFT(G26,FIND(" ",G26)-1)&amp;"."&amp;RIGHT(G26,LEN(G26)-FIND(" ",G26))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Ivania.Garafulic_yyy1234@Hotmail.com</v>
+      <c r="I26" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
         <v>69</v>
       </c>
@@ -1519,15 +1495,14 @@
       <c r="H27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="12" t="str">
-        <f aca="false">LEFT(G27,FIND(" ",G27)-1)&amp;"."&amp;RIGHT(G27,LEN(G27)-FIND(" ",G27))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Ivania.Garafulic_yyy1234@Hotmail.com</v>
+      <c r="I27" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
         <v>69</v>
       </c>
@@ -1552,15 +1527,14 @@
       <c r="H28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="12" t="str">
-        <f aca="false">LEFT(G28,FIND(" ",G28)-1)&amp;"."&amp;RIGHT(G28,LEN(G28)-FIND(" ",G28))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Ivania.Garafulic_yyy1234@Hotmail.com</v>
+      <c r="I28" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
         <v>69</v>
       </c>
@@ -1585,15 +1559,14 @@
       <c r="H29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="12" t="str">
-        <f aca="false">LEFT(G29,FIND(" ",G29)-1)&amp;"."&amp;RIGHT(G29,LEN(G29)-FIND(" ",G29))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Ivania.Garafulic_yyy1234@Hotmail.com</v>
+      <c r="I29" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
         <v>69</v>
       </c>
@@ -1618,15 +1591,14 @@
       <c r="H30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="12" t="str">
-        <f aca="false">LEFT(G30,FIND(" ",G30)-1)&amp;"."&amp;RIGHT(G30,LEN(G30)-FIND(" ",G30))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Ivania.Garafulic_yyy1234@Hotmail.com</v>
+      <c r="I30" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
         <v>69</v>
       </c>
@@ -1651,15 +1623,14 @@
       <c r="H31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="12" t="str">
-        <f aca="false">LEFT(G31,FIND(" ",G31)-1)&amp;"."&amp;RIGHT(G31,LEN(G31)-FIND(" ",G31))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Ivania.Garafulic_yyy1234@Hotmail.com</v>
+      <c r="I31" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="71.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
         <v>84</v>
       </c>
@@ -1670,7 +1641,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>86</v>
@@ -1684,15 +1655,14 @@
       <c r="H32" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="12" t="str">
-        <f aca="false">LEFT(G32,FIND(" ",G32)-1)&amp;"."&amp;RIGHT(G32,LEN(G32)-FIND(" ",G32))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Ivania.Garafulic_yyy1234@Hotmail.com</v>
+      <c r="I32" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
         <v>84</v>
       </c>
@@ -1703,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>88</v>
@@ -1717,15 +1687,14 @@
       <c r="H33" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I33" s="12" t="str">
-        <f aca="false">LEFT(G33,FIND(" ",G33)-1)&amp;"."&amp;RIGHT(G33,LEN(G33)-FIND(" ",G33))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Sofía.Rauld_yyy1234@Hotmail.com</v>
+      <c r="I33" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
         <v>84</v>
       </c>
@@ -1750,15 +1719,14 @@
       <c r="H34" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="12" t="str">
-        <f aca="false">LEFT(G34,FIND(" ",G34)-1)&amp;"."&amp;RIGHT(G34,LEN(G34)-FIND(" ",G34))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Sofía.Rauld_yyy1234@Hotmail.com</v>
+      <c r="I34" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="114.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
         <v>93</v>
       </c>
@@ -1783,15 +1751,14 @@
       <c r="H35" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="12" t="str">
-        <f aca="false">LEFT(G35,FIND(" ",G35)-1)&amp;"."&amp;RIGHT(G35,LEN(G35)-FIND(" ",G35))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Katherine.Vega_yyy1234@Hotmail.com</v>
+      <c r="I35" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
         <v>93</v>
       </c>
@@ -1802,7 +1769,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>97</v>
@@ -1816,15 +1783,14 @@
       <c r="H36" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="12" t="str">
-        <f aca="false">LEFT(G36,FIND(" ",G36)-1)&amp;"."&amp;RIGHT(G36,LEN(G36)-FIND(" ",G36))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Katherine.Vega_yyy1234@Hotmail.com</v>
+      <c r="I36" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
         <v>10</v>
       </c>
@@ -1849,15 +1815,14 @@
       <c r="H37" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="12" t="str">
-        <f aca="false">LEFT(G37,FIND(" ",G37)-1)&amp;"."&amp;RIGHT(G37,LEN(G37)-FIND(" ",G37))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Sofía.Rauld_yyy1234@Hotmail.com</v>
+      <c r="I37" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="58.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
         <v>84</v>
       </c>
@@ -1868,7 +1833,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>101</v>
@@ -1882,15 +1847,14 @@
       <c r="H38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I38" s="12" t="str">
-        <f aca="false">LEFT(G38,FIND(" ",G38)-1)&amp;"."&amp;RIGHT(G38,LEN(G38)-FIND(" ",G38))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Sofía.Rauld_yyy1234@Hotmail.com</v>
+      <c r="I38" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
         <v>84</v>
       </c>
@@ -1915,15 +1879,14 @@
       <c r="H39" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I39" s="12" t="str">
-        <f aca="false">LEFT(G39,FIND(" ",G39)-1)&amp;"."&amp;RIGHT(G39,LEN(G39)-FIND(" ",G39))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Nick.Castro _yyy1234@Hotmail.com</v>
+      <c r="I39" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
         <v>37</v>
       </c>
@@ -1937,7 +1900,7 @@
         <v>26</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F40" s="14" t="n">
         <v>44347</v>
@@ -1948,15 +1911,14 @@
       <c r="H40" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="12" t="str">
-        <f aca="false">LEFT(G40,FIND(" ",G40)-1)&amp;"."&amp;RIGHT(G40,LEN(G40)-FIND(" ",G40))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Arturo.Guzman _yyy1234@Hotmail.com</v>
+      <c r="I40" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
         <v>37</v>
       </c>
@@ -1981,15 +1943,14 @@
       <c r="H41" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="12" t="str">
-        <f aca="false">LEFT(G41,FIND(" ",G41)-1)&amp;"."&amp;RIGHT(G41,LEN(G41)-FIND(" ",G41))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Arturo.Guzman _yyy1234@Hotmail.com</v>
+      <c r="I41" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="58.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
         <v>37</v>
       </c>
@@ -2003,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F42" s="14" t="n">
         <v>44285</v>
@@ -2014,15 +1975,14 @@
       <c r="H42" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I42" s="12" t="str">
-        <f aca="false">LEFT(G42,FIND(" ",G42)-1)&amp;"."&amp;RIGHT(G42,LEN(G42)-FIND(" ",G42))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Arturo.Guzman _yyy1234@Hotmail.com</v>
+      <c r="I42" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
         <v>37</v>
       </c>
@@ -2047,15 +2007,14 @@
       <c r="H43" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="12" t="str">
-        <f aca="false">LEFT(G43,FIND(" ",G43)-1)&amp;"."&amp;RIGHT(G43,LEN(G43)-FIND(" ",G43))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Arturo.Guzman _yyy1234@Hotmail.com</v>
+      <c r="I43" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
         <v>111</v>
       </c>
@@ -2069,7 +2028,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F44" s="14" t="n">
         <v>44285</v>
@@ -2080,15 +2039,14 @@
       <c r="H44" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="12" t="str">
-        <f aca="false">LEFT(G44,FIND(" ",G44)-1)&amp;"."&amp;RIGHT(G44,LEN(G44)-FIND(" ",G44))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Eladio.Piña_yyy1234@Hotmail.com</v>
+      <c r="I44" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
         <v>111</v>
       </c>
@@ -2102,7 +2060,7 @@
         <v>13</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F45" s="14" t="n">
         <v>44285</v>
@@ -2113,9 +2071,8 @@
       <c r="H45" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I45" s="12" t="str">
-        <f aca="false">LEFT(G45,FIND(" ",G45)-1)&amp;"."&amp;RIGHT(G45,LEN(G45)-FIND(" ",G45))&amp;"_yyy1234@Hotmail.com"</f>
-        <v>Julian.Payan _yyy1234@Hotmail.com</v>
+      <c r="I45" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>24</v>
@@ -2347,7 +2304,50 @@
   </sheetData>
   <autoFilter ref="A1:J45"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I2" r:id="rId1" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I3" r:id="rId2" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I4" r:id="rId3" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I5" r:id="rId4" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I6" r:id="rId5" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I7" r:id="rId6" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I8" r:id="rId7" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I9" r:id="rId8" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I10" r:id="rId9" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I11" r:id="rId10" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I12" r:id="rId11" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I13" r:id="rId12" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I14" r:id="rId13" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I15" r:id="rId14" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I16" r:id="rId15" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I17" r:id="rId16" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I18" r:id="rId17" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I19" r:id="rId18" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I20" r:id="rId19" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I21" r:id="rId20" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I22" r:id="rId21" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I23" r:id="rId22" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I24" r:id="rId23" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I25" r:id="rId24" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I26" r:id="rId25" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I27" r:id="rId26" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I28" r:id="rId27" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I29" r:id="rId28" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I30" r:id="rId29" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I31" r:id="rId30" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I32" r:id="rId31" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I33" r:id="rId32" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I34" r:id="rId33" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I35" r:id="rId34" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I36" r:id="rId35" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I37" r:id="rId36" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I38" r:id="rId37" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I39" r:id="rId38" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I40" r:id="rId39" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I41" r:id="rId40" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I42" r:id="rId41" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I43" r:id="rId42" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I44" r:id="rId43" display="jmsiro@gmail.com"/>
+    <hyperlink ref="I45" r:id="rId44" display="jmsiro@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2356,7 +2356,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId45"/>
 </worksheet>
 </file>
 
